--- a/TestingOnline/uploads/a.xlsx
+++ b/TestingOnline/uploads/a.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thong\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B986A7-CC78-4526-A30E-61C920213B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9469BEAF-CE72-472A-B222-6E169567E6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="2070" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Câu</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>admitting</t>
+  </si>
+  <si>
+    <t>Dieu gì ban oi</t>
   </si>
 </sst>
 </file>
@@ -192,14 +195,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,11 +482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62D56F4-7A3A-464B-BD37-7C6844731648}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,19 +519,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -539,22 +542,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,32 +565,59 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -595,11 +625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62D56F4-7A3A-464B-BD37-7C6844731648}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,19 +662,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -655,22 +685,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -678,59 +708,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestingOnline/uploads/a.xlsx
+++ b/TestingOnline/uploads/a.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thong\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9469BEAF-CE72-472A-B222-6E169567E6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2125755-1497-42EA-B84D-13997072FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2070" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="2415" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="English" sheetId="4" r:id="rId1"/>
+    <sheet name="Code" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="300">
   <si>
     <t>Câu</t>
   </si>
@@ -127,26 +127,812 @@
     <t>The security guard refused Mr. Dillon ——- because he could not provide a validemployee badge.</t>
   </si>
   <si>
+    <t>admittedly</t>
+  </si>
+  <si>
+    <t>admittance</t>
+  </si>
+  <si>
+    <t>admitting</t>
+  </si>
+  <si>
     <t>admits</t>
   </si>
   <si>
-    <t>admittedly</t>
-  </si>
-  <si>
-    <t>admittance</t>
-  </si>
-  <si>
-    <t>admitting</t>
-  </si>
-  <si>
-    <t>Dieu gì ban oi</t>
+    <t>The airline representative apologized for the cancellation but explained that it was,due to factors -—— the company’s control</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>throughout</t>
+  </si>
+  <si>
+    <t>beyond</t>
+  </si>
+  <si>
+    <t>The Grand Villa neighborhood is known for having the city's largest —-— of high-end boutiques.</t>
+  </si>
+  <si>
+    <t>mobilization</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>The new security system can provide ———— by phone when a window or door hasbeen opened.</t>
+  </si>
+  <si>
+    <t>alertly</t>
+  </si>
+  <si>
+    <t>alerts</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>alerted</t>
+  </si>
+  <si>
+    <t>Ms. Herrera and Mr. Lee set up most of the centerpieces for the banquet ——because the rest of the team got stuck intraffic.</t>
+  </si>
+  <si>
+    <t>theirs</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>by their own</t>
+  </si>
+  <si>
+    <t>themselves</t>
+  </si>
+  <si>
+    <t>Mr. Mueller were surprised that the §suggestion most favored by the 3management team was in fact ———.</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>several</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>Visitors to the Santa Rosa Resort ———tip the housekeeping staff $5 per night's stay.</t>
+  </si>
+  <si>
+    <t>mutually</t>
+  </si>
+  <si>
+    <t>customarily</t>
+  </si>
+  <si>
+    <t>sharply</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>Six companies entered bids for the‘construction of the Gity’s recreation center,‘and —— met the required criteria for theproject</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>There will be a meeting for anyoneinterested in learning about the buildingplans at 5 pm ——.</t>
+  </si>
+  <si>
+    <t>in next Friday</t>
+  </si>
+  <si>
+    <t>at next Friday</t>
+  </si>
+  <si>
+    <t>on next Friday</t>
+  </si>
+  <si>
+    <t>next Friday</t>
+  </si>
+  <si>
+    <t>As the company became ————, it didn'tneed to rely on local suppliers, but couldimport equipment from other cities.</t>
+  </si>
+  <si>
+    <t>richest</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>successfully</t>
+  </si>
+  <si>
+    <t>wealthier</t>
+  </si>
+  <si>
+    <t>We are a business strategy consulting firm——— the top management of leading corporations</t>
+  </si>
+  <si>
+    <t>are serving</t>
+  </si>
+  <si>
+    <t>served</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>serving</t>
+  </si>
+  <si>
+    <t>We're looking for recent graduates with 1exceptional and —— quantitative §abilities and language skills to join our 3company.</t>
+  </si>
+  <si>
+    <t>demonstrate</t>
+  </si>
+  <si>
+    <t>demonstrable</t>
+  </si>
+  <si>
+    <t>demonstrated</t>
+  </si>
+  <si>
+    <t>demonstrating</t>
+  </si>
+  <si>
+    <t>Written permission is required toreproduce, in whole or ——— part, thematerial contained in this newsletter.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>UDA Airways will no longer participate injoint mileage programs with credit cardcompanies, ——— January 2016.</t>
+  </si>
+  <si>
+    <t>effected</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
+    <t>The musical was praised by critics for itscreative —— of Renaissane poetry intoits song lyrics.</t>
+  </si>
+  <si>
+    <t>intermission</t>
+  </si>
+  <si>
+    <t>accessory</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>incorporation</t>
+  </si>
+  <si>
+    <t>The sales team had a -——— timeadjusting to the new software than the.finance team did</t>
+  </si>
+  <si>
+    <t>hardest</t>
+  </si>
+  <si>
+    <t>hardly</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>harder</t>
+  </si>
+  <si>
+    <t>Mr. Mariowe admitted -——— mistake to §the team as soon as it was discovered.</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>him</t>
+  </si>
+  <si>
+    <t>himself</t>
+  </si>
+  <si>
+    <t>For details about your latest transactions 1or -—— funds from your account, use theATM, near the bank's entrance</t>
+  </si>
+  <si>
+    <t>withdrew</t>
+  </si>
+  <si>
+    <t>withdraws</t>
+  </si>
+  <si>
+    <t>to withdraw</t>
+  </si>
+  <si>
+    <t>withdrawal</t>
+  </si>
+  <si>
+    <t>The opening of public library in the small‘community of Yorktown was madeby financial support from residents.</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>evident</t>
+  </si>
+  <si>
+    <t>___ the poor weather, very few peopleturned up for the gallery's auctionsupporting local painters and sculptors.</t>
+  </si>
+  <si>
+    <t>As long as</t>
+  </si>
+  <si>
+    <t>Due to</t>
+  </si>
+  <si>
+    <t>Given that</t>
+  </si>
+  <si>
+    <t>Even if</t>
+  </si>
+  <si>
+    <t>The front desk employee at Marlin Hotelstrive to respond to guests' requests in atimely fashion, — they need</t>
+  </si>
+  <si>
+    <t>anybody</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>whatever</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>The flowers are kept in a greenhouse because they are —— to fluctuations intemperature.</t>
+  </si>
+  <si>
+    <t>threatened</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>feeble</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>A government grant was given to the. §Arlene Theater to improve the —— of its |facility for people in wheelchairs.</t>
+  </si>
+  <si>
+    <t>accessible</t>
+  </si>
+  <si>
+    <t>accessibiity</t>
+  </si>
+  <si>
+    <t>accessed</t>
+  </si>
+  <si>
+    <t>accessibly</t>
+  </si>
+  <si>
+    <t>Midnight Blue is the best-selling laundry §detergent —— families with young children</t>
+  </si>
+  <si>
+    <t>uniike</t>
+  </si>
+  <si>
+    <t>among</t>
+  </si>
+  <si>
+    <t>along</t>
+  </si>
+  <si>
+    <t>into</t>
+  </si>
+  <si>
+    <t>The majority of the contract -—— thattook place during the year were handledby lawyers from a local law firm.</t>
+  </si>
+  <si>
+    <t>negotiate</t>
+  </si>
+  <si>
+    <t>negotiations</t>
+  </si>
+  <si>
+    <t>negotiable</t>
+  </si>
+  <si>
+    <t>negotiator</t>
+  </si>
+  <si>
+    <t>People unanimously agreed that Johnwould have performed a great deal betterunder more — circumstances</t>
+  </si>
+  <si>
+    <t>favorable</t>
+  </si>
+  <si>
+    <t>favorably</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>Hotel employees are reminded to be ———- and courteous, especially to first-timequests.</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>The breakdown in our computer networkled to serious delay in the —— ofInternet orders.</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>processes</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>Workers at Dalston Industries will get a pay raise next month, ——— the firm's sales targets are met.</t>
+  </si>
+  <si>
+    <t>consequently</t>
+  </si>
+  <si>
+    <t>on behalf of</t>
+  </si>
+  <si>
+    <t>assuming that</t>
+  </si>
+  <si>
+    <t>afterwards</t>
+  </si>
+  <si>
+    <t>There are signs —— that the government has softened its stance on theimposition of Goods and Services Tax.</t>
+  </si>
+  <si>
+    <t>indicated</t>
+  </si>
+  <si>
+    <t>indicative</t>
+  </si>
+  <si>
+    <t>indicate</t>
+  </si>
+  <si>
+    <t>indicating</t>
+  </si>
+  <si>
+    <t>Our customer call center used to be inWichita, but last year we —— it to India,where costs are much lower</t>
+  </si>
+  <si>
+    <t>substituted</t>
+  </si>
+  <si>
+    <t>allocated</t>
+  </si>
+  <si>
+    <t>outsourced</t>
+  </si>
+  <si>
+    <t>allotted</t>
+  </si>
+  <si>
+    <t>Plympton Freight's trucks carry heavy —— across the country.</t>
+  </si>
+  <si>
+    <t>loader</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>loaded</t>
+  </si>
+  <si>
+    <t>loads</t>
+  </si>
+  <si>
+    <t>——— aboard member, Ms. Lessing iseligible to vote on a number of issues thataffect the corporation.</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>———— the next three days, the abandonedlot on Carrson Street will be transformedinto a beautiful garden.</t>
+  </si>
+  <si>
+    <t>Sustaining</t>
+  </si>
+  <si>
+    <t>Toward</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Given</t>
+  </si>
+  <si>
+    <t>In the manager's ———, the assistant §manager will create the weekly scheduleand handle all customer complaints</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>possession</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>The writing styles of the two authors are ———— similar, so people often confuse them.</t>
+  </si>
+  <si>
+    <t>broaden</t>
+  </si>
+  <si>
+    <t>broad</t>
+  </si>
+  <si>
+    <t>broadly</t>
+  </si>
+  <si>
+    <t>broadness</t>
+  </si>
+  <si>
+    <t>Several board members were not -———convinced that funding for the project isnecessary.</t>
+  </si>
+  <si>
+    <t>occasionally</t>
+  </si>
+  <si>
+    <t>preferably</t>
+  </si>
+  <si>
+    <t>equally</t>
+  </si>
+  <si>
+    <t>completely</t>
+  </si>
+  <si>
+    <t>Next week, the safety inspector will examine the factory for the third time ——- the discovery of the mechanical problem.</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>Các servlet Java là một giải pháp hiệu quả và mạnh mẽ để tạo _____ cho web</t>
+  </si>
+  <si>
+    <t>Nội dung động</t>
+  </si>
+  <si>
+    <t>Nội dung tĩnh</t>
+  </si>
+  <si>
+    <t>Phần cứng</t>
+  </si>
+  <si>
+    <t>Cả A và B</t>
+  </si>
+  <si>
+    <t>Lệnh "javac" được sử dụng để?</t>
+  </si>
+  <si>
+    <t>Gỡ lỗi chương trình Java</t>
+  </si>
+  <si>
+    <t>Biên dịch một chương trình Java</t>
+  </si>
+  <si>
+    <t>Diễn giải một chương trình Java</t>
+  </si>
+  <si>
+    <t>Thực hiện một chương trình Java</t>
+  </si>
+  <si>
+    <t>Điều nào dưới đây không phải tính năng của Java?</t>
+  </si>
+  <si>
+    <t>Động</t>
+  </si>
+  <si>
+    <t>Cấu trúc trung lập</t>
+  </si>
+  <si>
+    <t>Hướng đối tượng</t>
+  </si>
+  <si>
+    <t>Sử dụng con trỏ</t>
+  </si>
+  <si>
+    <t>Đâu là root class của tất cả AWT events?</t>
+  </si>
+  <si>
+    <t>java.awt.ActionEvent</t>
+  </si>
+  <si>
+    <t>java.awt.AWTEvent</t>
+  </si>
+  <si>
+    <t>java.awt.event.AWTEvent</t>
+  </si>
+  <si>
+    <t>java.awt.event.Event</t>
+  </si>
+  <si>
+    <t>___ được dùng để tìm và sửa lỗi các chương trình Java&gt;</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>JDK</t>
+  </si>
+  <si>
+    <t>JDB</t>
+  </si>
+  <si>
+    <t>JRE</t>
+  </si>
+  <si>
+    <t>Nếu x=3; y= 5 và z= 10: ++z+y-y+z+x++ = ?</t>
+  </si>
+  <si>
+    <t>Package nào sau đây chứa Random class?</t>
+  </si>
+  <si>
+    <t>java.util package</t>
+  </si>
+  <si>
+    <t>java.lang package</t>
+  </si>
+  <si>
+    <t>java.awt package</t>
+  </si>
+  <si>
+    <t>java.io package</t>
+  </si>
+  <si>
+    <t>Điều nào sau đây đúng về Java?</t>
+  </si>
+  <si>
+    <t>Java không hỗ trỡ overloading</t>
+  </si>
+  <si>
+    <t>Java đã thay thế hàm hủy của C ++</t>
+  </si>
+  <si>
+    <t>Không có tệp tiêu đề nào trong Java.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tất cả những ý trên </t>
+  </si>
+  <si>
+    <t>Kiểu nào sau đây không phải kiểu nguyên thủy của Java?</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Long double</t>
+  </si>
+  <si>
+    <t>Lệnh "javac"?</t>
+  </si>
+  <si>
+    <t>Chuyển đổi chương trình java thành mã nhị phân</t>
+  </si>
+  <si>
+    <t>Chuyển đổi một chương trình java thành bytecode</t>
+  </si>
+  <si>
+    <t>Chuyển đổi chương trình java thành ngôn ngữ máy</t>
+  </si>
+  <si>
+    <t>Không có điều nào ở trên là đúng.</t>
+  </si>
+  <si>
+    <t>Thực thi chương trình java đã biên dịch bằng lệnh?</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>javac</t>
+  </si>
+  <si>
+    <t>javarun</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>Biểu thức float a=35/0 trả về điều gì</t>
+  </si>
+  <si>
+    <t>Không ra số</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Run time exception</t>
+  </si>
+  <si>
+    <t>Vòng lặp for nào dưới đây là không hợp lệ?</t>
+  </si>
+  <si>
+    <t>for ( int i = 99; i &gt;= 0; i / 9 )</t>
+  </si>
+  <si>
+    <t>for ( int i = 7; i &lt;= 77; i += 7 )</t>
+  </si>
+  <si>
+    <t>for ( int i = 20; i &gt;= 2; --i )</t>
+  </si>
+  <si>
+    <t>for ( int i = 2; i &lt;= 20; i = 2* i )</t>
+  </si>
+  <si>
+    <t>Tất cả các lớp Java đều có nguồn gốc từ</t>
+  </si>
+  <si>
+    <t>java.lang.Class</t>
+  </si>
+  <si>
+    <t>java.lang.Name</t>
+  </si>
+  <si>
+    <t>java.lang.Object</t>
+  </si>
+  <si>
+    <t>java.awt.Window</t>
+  </si>
+  <si>
+    <t>Sẽ ra sao nếu "String[]args" không có trong hàm main?</t>
+  </si>
+  <si>
+    <t>Không có lỗi</t>
+  </si>
+  <si>
+    <t>Biên dịch lỗi</t>
+  </si>
+  <si>
+    <t>Chương trình không chạy</t>
+  </si>
+  <si>
+    <t>Chương trình tắt</t>
+  </si>
+  <si>
+    <t>Điều nào sau đây không bắt buộc khi khai báo biến</t>
+  </si>
+  <si>
+    <t>Dấu chấm phẩy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Định danh </t>
+  </si>
+  <si>
+    <t>Nhiệm vụ</t>
+  </si>
+  <si>
+    <t>Kiểu dữ liệu</t>
+  </si>
+  <si>
+    <t>Từ khóa nào sau đây là từ khóa dành riêng trong Java?</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>strictfp</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +947,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +985,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,21 +1000,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,247 +1317,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62D56F4-7A3A-464B-BD37-7C6844731648}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868911B6-2499-45B2-B581-17345B49407A}">
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="92.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B37" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -731,22 +2392,390 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+        <v>220</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="1">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
